--- a/Data Visualization and Dashboards with Excel and Cognos/CarSalesByModelStart.xlsx
+++ b/Data Visualization and Dashboards with Excel and Cognos/CarSalesByModelStart.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B9EDD-EF69-454E-9542-AC3A82E65D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CarSales" sheetId="2" r:id="rId1"/>
@@ -133,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -226,7 +225,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -269,7 +267,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[CarSalesByModelStart.xlsx]Sheet1!PivotTable2</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -292,13 +290,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-MY" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="en-MY" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
               <a:t>Quantity Sold by Dealer ID</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -344,47 +343,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -496,7 +454,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9182-46E0-A7D1-AE8755797A9B}"/>
+              <c16:uniqueId val="{00000000-4790-4052-B5C7-3F09B3FDB1CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -510,11 +468,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="486321160"/>
-        <c:axId val="486323128"/>
+        <c:axId val="565659824"/>
+        <c:axId val="565663568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="486321160"/>
+        <c:axId val="565659824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486323128"/>
+        <c:crossAx val="565663568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -565,7 +523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486323128"/>
+        <c:axId val="565663568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486321160"/>
+        <c:crossAx val="565659824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -629,7 +587,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -661,13 +620,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -734,65 +686,9 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[CarSalesByModelStart.xlsx]Sheet2!PivotTable3</c:name>
-    <c:fmtId val="7"/>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-MY" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Profit by Date and Model</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-MY"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -809,47 +705,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -865,47 +720,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -921,47 +735,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -977,47 +750,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -1033,47 +765,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1271,7 +962,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49D4-49FB-B164-FD3FA8C20D61}"/>
+              <c16:uniqueId val="{00000000-4811-40CE-A0C2-A6DF69744899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1465,7 +1156,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-49D4-49FB-B164-FD3FA8C20D61}"/>
+              <c16:uniqueId val="{00000001-4811-40CE-A0C2-A6DF69744899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1659,7 +1350,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-49D4-49FB-B164-FD3FA8C20D61}"/>
+              <c16:uniqueId val="{00000002-4811-40CE-A0C2-A6DF69744899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1853,7 +1544,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-49D4-49FB-B164-FD3FA8C20D61}"/>
+              <c16:uniqueId val="{00000003-4811-40CE-A0C2-A6DF69744899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2047,7 +1738,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-49D4-49FB-B164-FD3FA8C20D61}"/>
+              <c16:uniqueId val="{00000004-4811-40CE-A0C2-A6DF69744899}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2060,11 +1751,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="490260856"/>
-        <c:axId val="490261184"/>
+        <c:axId val="568577296"/>
+        <c:axId val="568566064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="490260856"/>
+        <c:axId val="568577296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +1798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490261184"/>
+        <c:crossAx val="568566064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2115,7 +1806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490261184"/>
+        <c:axId val="568566064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +1857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490260856"/>
+        <c:crossAx val="568577296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2180,6 +1871,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2211,13 +1903,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2250,6 +1935,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
@@ -2284,7 +1970,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[CarSalesByModelStart.xlsx]Sheet3!PivotTable4</c:name>
-    <c:fmtId val="5"/>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -2307,13 +1993,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-MY" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="en-MY" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
               <a:t>Profit by Year and Dealer ID</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2349,7 +2040,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="C00000"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2359,47 +2050,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2424,7 +2074,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2581,7 +2231,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-261D-480D-BF2F-D8CBC1802787}"/>
+              <c16:uniqueId val="{00000000-4B13-474A-B445-C25C19945242}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2595,11 +2245,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="490282176"/>
-        <c:axId val="490289720"/>
+        <c:axId val="568566896"/>
+        <c:axId val="568573552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490282176"/>
+        <c:axId val="568566896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490289720"/>
+        <c:crossAx val="568573552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490289720"/>
+        <c:axId val="568573552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +2351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490282176"/>
+        <c:crossAx val="568566896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2714,7 +2364,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2746,13 +2397,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2819,7 +2463,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[CarSalesByModelStart.xlsx]Sheet4!PivotTable5</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -2842,13 +2486,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-MY" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="en-MY" sz="1800" i="0"/>
               <a:t>Profit of Hudson Models by Dealer ID</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1800" i="0"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2885,7 +2530,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:srgbClr val="92D050"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2894,47 +2539,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2959,7 +2563,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3055,7 +2659,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BEF-45A5-8352-28D7444DEA4B}"/>
+              <c16:uniqueId val="{00000000-1C17-4F71-8170-CB8DC207293D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3068,11 +2672,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="490280864"/>
-        <c:axId val="490288408"/>
+        <c:axId val="613386032"/>
+        <c:axId val="613386448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="490280864"/>
+        <c:axId val="613386032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +2719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490288408"/>
+        <c:crossAx val="613386448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3123,12 +2727,21 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490288408"/>
+        <c:axId val="613386448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3160,7 +2773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490280864"/>
+        <c:crossAx val="613386032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3174,6 +2787,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3205,13 +2819,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5465,26 +5072,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77DF208-180C-48D7-8F47-5677A33A81F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5507,25 +5108,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C2DBFA-5F9F-4028-9AD5-A2768DBF66A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5544,29 +5139,64 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.302</cdr:x>
+      <cdr:y>0.0267</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70153</cdr:x>
+      <cdr:y>0.10297</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1958340" y="133350"/>
+          <a:ext cx="2590800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" b="1"/>
+            <a:t>Profit by Date and Model</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9D46C5-6F3C-4CD3-AAEA-0A4968321A2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5584,30 +5214,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68CDAFC-6467-462A-AEE9-526922E123B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5626,7 +5250,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="44122.105618055553" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1200" xr:uid="{9F8DA634-3909-4EA2-9A85-18F9976A6125}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Excel Services" refreshedDate="44122.105618055553" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1200">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" sheet="CarSales"/>
   </cacheSource>
@@ -16512,7 +16136,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BB0D9F4-4C47-443C-AE24-4806F8DF567F}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -16590,17 +16214,6 @@
   <dataFields count="1">
     <dataField name="Sum of Quantity Sold" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16614,7 +16227,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2C47EDB-9E24-4068-8FD6-542F41BFFF16}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -16769,7 +16382,7 @@
     <dataField name="Sum of Profit" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="5">
-    <chartFormat chart="7" format="0" series="1">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -16781,7 +16394,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -16793,7 +16406,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="2" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -16805,7 +16418,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="3" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -16817,7 +16430,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="4" series="1">
+    <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -16843,7 +16456,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF2A55BA-CB70-4FB4-B63B-6D7D85F046EB}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -16958,7 +16571,7 @@
     <dataField name="Sum of Profit" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="5" format="0" series="1">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16981,7 +16594,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11624055-2F15-4F2F-8395-9F4AD550FA32}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -17064,17 +16677,6 @@
   <dataFields count="1">
     <dataField name="Sum of Profit" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -17088,16 +16690,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BE591ED-0A94-45BF-AEFB-0FA70D1D9D93}" name="Table1" displayName="Table1" ref="A1:G1201" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:G1201" xr:uid="{E69AED80-3128-4294-AEC5-928AE3035DB5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1201" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:G1201"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7DD4FBAA-AA2E-48C4-8C63-8FDE9D71B5EC}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{C88201FD-F658-48F1-BDC6-2EDBB87BC7E3}" name="Month"/>
-    <tableColumn id="3" xr3:uid="{495717B1-61B8-4C7C-841C-FCF90A4DCB31}" name="Date" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{E0D96F1E-7007-40B3-9CE0-B301195EFE66}" name="Model"/>
-    <tableColumn id="5" xr3:uid="{293F92E3-4398-4770-B21D-526ACA167CCB}" name="Dealer ID"/>
-    <tableColumn id="6" xr3:uid="{656B6617-9926-48F2-A932-FC04FB5961CB}" name="Quantity Sold"/>
-    <tableColumn id="7" xr3:uid="{F0D135AC-E910-4E68-9C99-E5651F54EA9C}" name="Profit"/>
+    <tableColumn id="1" name="Year"/>
+    <tableColumn id="2" name="Month"/>
+    <tableColumn id="3" name="Date" dataDxfId="0"/>
+    <tableColumn id="4" name="Model"/>
+    <tableColumn id="5" name="Dealer ID"/>
+    <tableColumn id="6" name="Quantity Sold"/>
+    <tableColumn id="7" name="Profit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17179,23 +16781,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -17231,23 +16816,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -17423,7 +16991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A7125B-85AB-49CA-94B7-4AEC626F3FBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45073,11 +44641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5828950F-CD19-4BDB-AE16-C6BB27F72447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45189,11 +44757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60382650-FD54-405D-8EA5-8E451EFBCD6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45818,18 +45386,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E45BC85-4D7C-4792-8E90-6AB12038D2E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -46040,18 +45608,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4166E537-BD58-4DDE-B5CA-1987FF9C9E36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
